--- a/Luban/Config/Datas/Config.xlsx
+++ b/Luban/Config/Datas/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="UIConfig" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
     <t>UI_Dialog</t>
   </si>
   <si>
-    <t>UI_Inventory</t>
+    <t>UI_Backpack</t>
   </si>
   <si>
     <t>实体编号</t>
@@ -1102,8 +1102,8 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
@@ -1282,8 +1282,8 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="28" customHeight="1" outlineLevelRow="6" outlineLevelCol="5"/>

--- a/Luban/Config/Datas/Config.xlsx
+++ b/Luban/Config/Datas/Config.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UIConfig" sheetId="1" r:id="rId1"/>
     <sheet name="EntityConfig" sheetId="2" r:id="rId2"/>
+    <sheet name="GameConfig" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -93,6 +94,39 @@
   </si>
   <si>
     <t>CylinderExample</t>
+  </si>
+  <si>
+    <t>##var#column</t>
+  </si>
+  <si>
+    <t>is_david_dead</t>
+  </si>
+  <si>
+    <t>大卫死了吗</t>
+  </si>
+  <si>
+    <t>is_rebellion_start</t>
+  </si>
+  <si>
+    <t>暴动开始了吗</t>
+  </si>
+  <si>
+    <t>current_day</t>
+  </si>
+  <si>
+    <t>游戏开始的第几天</t>
+  </si>
+  <si>
+    <t>current_weekday</t>
+  </si>
+  <si>
+    <t>本周的第几天</t>
+  </si>
+  <si>
+    <t>current_week</t>
+  </si>
+  <si>
+    <t>游戏开始的第几周</t>
   </si>
 </sst>
 </file>
@@ -105,7 +139,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +148,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF24292F"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -121,15 +161,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF24292F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -279,12 +325,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9FBD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC5C5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9FBD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC5C5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -602,10 +678,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,144 +690,179 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1102,7 +1213,7 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1116,72 +1227,72 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1283,7 +1394,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="28" customHeight="1" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1295,56 +1406,56 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" customHeight="1" spans="2:3">
       <c r="B5">
@@ -1375,4 +1486,234 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="20" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="44.125" customWidth="1"/>
+    <col min="7" max="7" width="27.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Luban/Config/Datas/Config.xlsx
+++ b/Luban/Config/Datas/Config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>##var</t>
   </si>
@@ -102,31 +102,16 @@
     <t>is_david_dead</t>
   </si>
   <si>
-    <t>大卫死了吗</t>
-  </si>
-  <si>
     <t>is_rebellion_start</t>
   </si>
   <si>
-    <t>暴动开始了吗</t>
-  </si>
-  <si>
     <t>current_day</t>
   </si>
   <si>
-    <t>游戏开始的第几天</t>
-  </si>
-  <si>
     <t>current_weekday</t>
   </si>
   <si>
-    <t>本周的第几天</t>
-  </si>
-  <si>
     <t>current_week</t>
-  </si>
-  <si>
-    <t>游戏开始的第几周</t>
   </si>
 </sst>
 </file>
@@ -325,24 +310,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9FBD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC5C5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -678,85 +651,85 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -765,16 +738,22 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -783,19 +762,19 @@
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -804,19 +783,13 @@
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -833,21 +806,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -859,9 +832,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1494,7 +1467,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
@@ -1529,9 +1502,7 @@
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="C2" s="8"/>
       <c r="D2" s="6" t="b">
         <v>0</v>
       </c>
@@ -1540,14 +1511,12 @@
     </row>
     <row r="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="C3" s="8"/>
       <c r="D3" s="6" t="b">
         <v>0</v>
       </c>
@@ -1556,14 +1525,12 @@
     </row>
     <row r="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="C4" s="8"/>
       <c r="D4" s="6">
         <v>1</v>
       </c>
@@ -1572,28 +1539,24 @@
     </row>
     <row r="5" customFormat="1" customHeight="1" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="C5" s="8"/>
       <c r="D5" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="1" customHeight="1" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="C6" s="11"/>
       <c r="D6" s="10">
         <v>1</v>
       </c>

--- a/Luban/Config/Datas/Config.xlsx
+++ b/Luban/Config/Datas/Config.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Blues-Dusk\Luban\Config\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D5C210-8809-41A8-B457-572BEC4B3911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="-23148" yWindow="5304" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UIConfig" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -112,19 +118,21 @@
   </si>
   <si>
     <t>current_week</t>
+  </si>
+  <si>
+    <t>UI_GameMenu</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,7 +144,7 @@
       <sz val="12"/>
       <color rgb="FF24292F"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -167,150 +175,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,182 +246,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -545,255 +270,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,11 +304,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -832,66 +321,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1178,28 +628,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="4" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="29.5" customWidth="1"/>
-    <col min="6" max="6" width="44.125" customWidth="1"/>
-    <col min="7" max="7" width="27.375" customWidth="1"/>
+    <col min="2" max="4" width="15.86328125" customWidth="1"/>
+    <col min="5" max="5" width="29.46484375" customWidth="1"/>
+    <col min="6" max="6" width="44.1328125" customWidth="1"/>
+    <col min="7" max="7" width="27.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1219,7 +669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -1229,7 +679,7 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
@@ -1249,7 +699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
@@ -1269,7 +719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:6">
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>100</v>
       </c>
@@ -1286,7 +736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:6">
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>101</v>
       </c>
@@ -1303,7 +753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="2:6">
+    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>102</v>
       </c>
@@ -1320,7 +770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:6">
+    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1000</v>
       </c>
@@ -1337,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="2:6">
+    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1001</v>
       </c>
@@ -1354,31 +804,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>1002</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="28" customHeight="1" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="16.86328125" defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="26.875" customWidth="1"/>
-    <col min="6" max="6" width="25.375" customWidth="1"/>
-    <col min="7" max="16384" width="16.875" customWidth="1"/>
+    <col min="1" max="4" width="16.86328125" customWidth="1"/>
+    <col min="5" max="5" width="26.86328125" customWidth="1"/>
+    <col min="6" max="6" width="25.3984375" customWidth="1"/>
+    <col min="7" max="7" width="16.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1392,7 +858,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -1402,7 +868,7 @@
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
@@ -1416,7 +882,7 @@
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
@@ -1430,7 +896,7 @@
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
     </row>
-    <row r="5" customHeight="1" spans="2:3">
+    <row r="5" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>10000</v>
       </c>
@@ -1438,7 +904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:3">
+    <row r="6" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>10001</v>
       </c>
@@ -1446,7 +912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="2:3">
+    <row r="7" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>10002</v>
       </c>
@@ -1455,33 +921,32 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29.5" customWidth="1"/>
-    <col min="6" max="6" width="44.125" customWidth="1"/>
-    <col min="7" max="7" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.73046875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.86328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29.46484375" customWidth="1"/>
+    <col min="6" max="6" width="44.1328125" customWidth="1"/>
+    <col min="7" max="7" width="27.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1495,7 +960,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" customFormat="1" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
@@ -1509,7 +974,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" customFormat="1" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -1523,7 +988,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" customFormat="1" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
@@ -1537,7 +1002,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" customFormat="1" customHeight="1" spans="1:4">
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -1549,7 +1014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="1" customHeight="1" spans="1:4">
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
@@ -1561,122 +1026,122 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="1" customHeight="1" spans="1:4">
+    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" customFormat="1" customHeight="1" spans="1:4">
+    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" customFormat="1" customHeight="1" spans="1:4">
+    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" customFormat="1" customHeight="1" spans="1:4">
+    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" customFormat="1" customHeight="1" spans="1:4">
+    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" customFormat="1" customHeight="1" spans="1:4">
+    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" customFormat="1" customHeight="1" spans="1:4">
+    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" customFormat="1" customHeight="1" spans="1:4">
+    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" customFormat="1" customHeight="1" spans="1:4">
+    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" customFormat="1" customHeight="1" spans="1:4">
+    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" customFormat="1" customHeight="1" spans="1:4">
+    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" customFormat="1" customHeight="1" spans="1:4">
+    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" customFormat="1" customHeight="1" spans="1:4">
+    <row r="19" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" customFormat="1" customHeight="1" spans="1:4">
+    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" customFormat="1" customHeight="1" spans="1:4">
+    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" customFormat="1" customHeight="1" spans="1:4">
+    <row r="22" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" customFormat="1" customHeight="1" spans="1:4">
+    <row r="23" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" customFormat="1" customHeight="1" spans="1:4">
+    <row r="24" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" customFormat="1" customHeight="1" spans="1:4">
+    <row r="25" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Luban/Config/Datas/Config.xlsx
+++ b/Luban/Config/Datas/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Blues-Dusk\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D5C210-8809-41A8-B457-572BEC4B3911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E255CA-7655-4303-A967-1DD546EA53B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="5304" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22728" yWindow="6312" windowWidth="17280" windowHeight="8808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UIConfig" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -125,6 +125,10 @@
   </si>
   <si>
     <t>Default</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_DiceInventory</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -634,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -819,6 +823,23 @@
       </c>
       <c r="F10" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>1003</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/Config.xlsx
+++ b/Luban/Config/Datas/Config.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Blues-Dusk\Luban\Config\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D5C210-8809-41A8-B457-572BEC4B3911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="5304" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="UIConfig" sheetId="1" r:id="rId1"/>
     <sheet name="EntityConfig" sheetId="2" r:id="rId2"/>
     <sheet name="GameConfig" sheetId="3" r:id="rId3"/>
+    <sheet name="SceneConfig" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -90,6 +85,9 @@
     <t>UI_Backpack</t>
   </si>
   <si>
+    <t>UI_GameMenu</t>
+  </si>
+  <si>
     <t>实体编号</t>
   </si>
   <si>
@@ -120,22 +118,61 @@
     <t>current_week</t>
   </si>
   <si>
-    <t>UI_GameMenu</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>scene_asset_name</t>
+  </si>
+  <si>
+    <t>is_unlock</t>
+  </si>
+  <si>
+    <t>场景资源名</t>
+  </si>
+  <si>
+    <t>是否解锁</t>
+  </si>
+  <si>
+    <t>S_Tower</t>
+  </si>
+  <si>
+    <t>S_Parlor</t>
+  </si>
+  <si>
+    <t>S_FengHospital</t>
+  </si>
+  <si>
+    <t>S_Station</t>
+  </si>
+  <si>
+    <t>S_Bar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -144,14 +181,7 @@
       <sz val="12"/>
       <color rgb="FF24292F"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -161,7 +191,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -170,46 +245,89 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +336,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9FBD3"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -236,18 +366,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -270,15 +562,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -286,62 +814,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -628,98 +1198,98 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="4" width="15.86328125" customWidth="1"/>
-    <col min="5" max="5" width="29.46484375" customWidth="1"/>
-    <col min="6" max="6" width="44.1328125" customWidth="1"/>
-    <col min="7" max="7" width="27.3984375" customWidth="1"/>
+    <col min="2" max="4" width="15.8666666666667" customWidth="1"/>
+    <col min="5" max="5" width="29.4666666666667" customWidth="1"/>
+    <col min="6" max="6" width="44.1333333333333" customWidth="1"/>
+    <col min="7" max="7" width="27.4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" customHeight="1" spans="2:6">
       <c r="B5">
         <v>100</v>
       </c>
@@ -736,7 +1306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" customHeight="1" spans="2:6">
       <c r="B6">
         <v>101</v>
       </c>
@@ -753,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" customHeight="1" spans="2:6">
       <c r="B7">
         <v>102</v>
       </c>
@@ -770,7 +1340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" customHeight="1" spans="2:6">
       <c r="B8">
         <v>1000</v>
       </c>
@@ -787,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" customHeight="1" spans="2:6">
       <c r="B9">
         <v>1001</v>
       </c>
@@ -804,15 +1374,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" customHeight="1" spans="2:6">
       <c r="B10">
         <v>1002</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>33</v>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -822,326 +1392,434 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.86328125" defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.8666666666667" defaultRowHeight="28.05" customHeight="1" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="4" width="16.86328125" customWidth="1"/>
-    <col min="5" max="5" width="26.86328125" customWidth="1"/>
-    <col min="6" max="6" width="25.3984375" customWidth="1"/>
-    <col min="7" max="7" width="16.86328125" customWidth="1"/>
+    <col min="1" max="4" width="16.8666666666667" customWidth="1"/>
+    <col min="5" max="5" width="26.8666666666667" customWidth="1"/>
+    <col min="6" max="6" width="25.4" customWidth="1"/>
+    <col min="7" max="7" width="16.8666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:3">
       <c r="B5">
         <v>10000</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:3">
       <c r="B6">
         <v>10001</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:3">
       <c r="B7">
         <v>10002</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.73046875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.86328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29.46484375" customWidth="1"/>
-    <col min="6" max="6" width="44.1328125" customWidth="1"/>
-    <col min="7" max="7" width="27.3984375" customWidth="1"/>
+    <col min="1" max="1" width="20" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.8666666666667" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.7333333333333" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.8666666666667" style="6" customWidth="1"/>
+    <col min="5" max="5" width="29.4666666666667" customWidth="1"/>
+    <col min="6" max="6" width="44.1333333333333" customWidth="1"/>
+    <col min="7" max="7" width="27.4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" customHeight="1" spans="1:6">
+      <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="6" t="b">
+      <c r="C2" s="11"/>
+      <c r="D2" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="6" t="b">
+      <c r="C3" s="11"/>
+      <c r="D3" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="6">
+      <c r="C4" s="11"/>
+      <c r="D4" s="9">
         <v>1</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="10">
+      <c r="C5" s="11"/>
+      <c r="D5" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10">
+      <c r="C6" s="14"/>
+      <c r="D6" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:4">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25" defaultRowHeight="27" customHeight="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="26.375" customWidth="1"/>
+    <col min="4" max="16381" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:3">
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:3">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:3">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:3">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:3">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Luban/Config/Datas/Config.xlsx
+++ b/Luban/Config/Datas/Config.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Blues-Dusk\Luban\Config\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E255CA-7655-4303-A967-1DD546EA53B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22728" yWindow="6312" windowWidth="17280" windowHeight="8808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="UIConfig" sheetId="1" r:id="rId1"/>
     <sheet name="EntityConfig" sheetId="2" r:id="rId2"/>
     <sheet name="GameConfig" sheetId="3" r:id="rId3"/>
+    <sheet name="SceneConfig" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -90,6 +85,21 @@
     <t>UI_Backpack</t>
   </si>
   <si>
+    <t>UI_GameMenu</t>
+  </si>
+  <si>
+    <t>UI_DiceInventory</t>
+  </si>
+  <si>
+    <t>UI_Tip</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>UI_SelectScene</t>
+  </si>
+  <si>
     <t>实体编号</t>
   </si>
   <si>
@@ -120,23 +130,65 @@
     <t>current_week</t>
   </si>
   <si>
-    <t>UI_GameMenu</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI_DiceInventory</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>scene_asset_name</t>
+  </si>
+  <si>
+    <t>is_unlocked</t>
+  </si>
+  <si>
+    <t>场景资源名</t>
+  </si>
+  <si>
+    <t>是否解锁</t>
+  </si>
+  <si>
+    <t>S_Parlor</t>
+  </si>
+  <si>
+    <t>S_Station</t>
+  </si>
+  <si>
+    <t>S_Bar</t>
+  </si>
+  <si>
+    <t>S_FengHospital</t>
+  </si>
+  <si>
+    <t>S_Tower</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,14 +200,7 @@
       <sz val="12"/>
       <color rgb="FF24292F"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -165,7 +210,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -174,46 +264,89 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,6 +355,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9FBD3"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -240,18 +385,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -274,15 +581,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -290,62 +833,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -632,98 +1217,98 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="4" width="15.86328125" customWidth="1"/>
-    <col min="5" max="5" width="29.46484375" customWidth="1"/>
-    <col min="6" max="6" width="44.1328125" customWidth="1"/>
-    <col min="7" max="7" width="27.3984375" customWidth="1"/>
+    <col min="2" max="4" width="15.8666666666667" customWidth="1"/>
+    <col min="5" max="5" width="29.4666666666667" customWidth="1"/>
+    <col min="6" max="6" width="44.1333333333333" customWidth="1"/>
+    <col min="7" max="7" width="27.4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+    <row r="1" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" customHeight="1" spans="2:6">
       <c r="B5">
         <v>100</v>
       </c>
@@ -740,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" customHeight="1" spans="2:6">
       <c r="B6">
         <v>101</v>
       </c>
@@ -757,7 +1342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" customHeight="1" spans="2:6">
       <c r="B7">
         <v>102</v>
       </c>
@@ -774,7 +1359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" customHeight="1" spans="2:6">
       <c r="B8">
         <v>1000</v>
       </c>
@@ -791,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" customHeight="1" spans="2:6">
       <c r="B9">
         <v>1001</v>
       </c>
@@ -805,18 +1390,18 @@
         <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:6">
       <c r="B10">
         <v>1002</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>33</v>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -825,344 +1410,488 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" customHeight="1" spans="2:6">
       <c r="B11">
         <v>1003</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="18" t="b">
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:6">
+      <c r="B12">
+        <v>1004</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="13" customHeight="1" spans="2:6">
+      <c r="B13">
+        <v>1005</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.86328125" defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.8666666666667" defaultRowHeight="28.05" customHeight="1" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="4" width="16.86328125" customWidth="1"/>
-    <col min="5" max="5" width="26.86328125" customWidth="1"/>
-    <col min="6" max="6" width="25.3984375" customWidth="1"/>
-    <col min="7" max="7" width="16.86328125" customWidth="1"/>
+    <col min="1" max="4" width="16.8666666666667" customWidth="1"/>
+    <col min="5" max="5" width="26.8666666666667" customWidth="1"/>
+    <col min="6" max="6" width="25.4" customWidth="1"/>
+    <col min="7" max="7" width="16.8666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+    <row r="1" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:3">
       <c r="B5">
         <v>10000</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:3">
       <c r="B6">
         <v>10001</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:3">
       <c r="B7">
         <v>10002</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.73046875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.86328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29.46484375" customWidth="1"/>
-    <col min="6" max="6" width="44.1328125" customWidth="1"/>
-    <col min="7" max="7" width="27.3984375" customWidth="1"/>
+    <col min="1" max="1" width="20" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.8666666666667" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.7333333333333" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.8666666666667" style="6" customWidth="1"/>
+    <col min="5" max="5" width="29.4666666666667" customWidth="1"/>
+    <col min="6" max="6" width="44.1333333333333" customWidth="1"/>
+    <col min="7" max="7" width="27.4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" customHeight="1" spans="1:6">
+      <c r="A1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="6">
+      <c r="C4" s="11"/>
+      <c r="D4" s="9">
         <v>1</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="10">
+      <c r="C5" s="11"/>
+      <c r="D5" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10">
+      <c r="C6" s="14"/>
+      <c r="D6" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:4">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.875" defaultRowHeight="29" customHeight="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="16383" width="18.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:3">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:3">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:3">
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:3">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:3">
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Luban/Config/Datas/Config.xlsx
+++ b/Luban/Config/Datas/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="UIConfig" sheetId="1" r:id="rId1"/>
@@ -167,7 +167,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,13 +185,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -687,10 +680,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,7 +692,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -708,24 +701,27 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,97 +731,94 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -835,7 +828,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -847,21 +840,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -873,8 +866,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1225,8 +1218,8 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
@@ -1793,7 +1786,7 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>

--- a/Luban/Config/Datas/Config.xlsx
+++ b/Luban/Config/Datas/Config.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Blues-Dusk\Luban\Config\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F34C17-6FCE-4F2D-AD35-BFF8A24CB2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UIConfig" sheetId="1" r:id="rId1"/>
@@ -160,14 +166,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,7 +193,7 @@
       <sz val="12"/>
       <color rgb="FF24292F"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -209,137 +209,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,182 +252,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -574,251 +276,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -826,8 +292,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -849,11 +315,11 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -866,64 +332,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1210,28 +634,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="4" width="15.8666666666667" customWidth="1"/>
-    <col min="5" max="5" width="29.4666666666667" customWidth="1"/>
-    <col min="6" max="6" width="44.1333333333333" customWidth="1"/>
-    <col min="7" max="7" width="27.4" customWidth="1"/>
+    <col min="2" max="4" width="15.86328125" customWidth="1"/>
+    <col min="5" max="5" width="29.46484375" customWidth="1"/>
+    <col min="6" max="6" width="44.1328125" customWidth="1"/>
+    <col min="7" max="7" width="27.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1261,7 +685,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1281,7 +705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1301,7 +725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:6">
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>100</v>
       </c>
@@ -1318,7 +742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:6">
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>101</v>
       </c>
@@ -1335,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="2:6">
+    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>102</v>
       </c>
@@ -1352,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:6">
+    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1000</v>
       </c>
@@ -1369,7 +793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="2:6">
+    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1001</v>
       </c>
@@ -1383,10 +807,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1002</v>
       </c>
@@ -1400,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="2:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1003</v>
       </c>
@@ -1417,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="2:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1004</v>
       </c>
@@ -1437,7 +861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="2:6">
+    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1005</v>
       </c>
@@ -1455,30 +879,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.8666666666667" defaultRowHeight="28.05" customHeight="1" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="16.86328125" defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="16.8666666666667" customWidth="1"/>
-    <col min="5" max="5" width="26.8666666666667" customWidth="1"/>
-    <col min="6" max="6" width="25.4" customWidth="1"/>
-    <col min="7" max="7" width="16.8666666666667" customWidth="1"/>
+    <col min="1" max="4" width="16.86328125" customWidth="1"/>
+    <col min="5" max="5" width="26.86328125" customWidth="1"/>
+    <col min="6" max="6" width="25.3984375" customWidth="1"/>
+    <col min="7" max="7" width="16.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1492,7 +915,7 @@
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
     </row>
-    <row r="2" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1502,7 +925,7 @@
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1516,7 +939,7 @@
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1530,7 +953,7 @@
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" customHeight="1" spans="2:3">
+    <row r="5" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>10000</v>
       </c>
@@ -1538,7 +961,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:3">
+    <row r="6" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>10001</v>
       </c>
@@ -1546,7 +969,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="2:3">
+    <row r="7" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>10002</v>
       </c>
@@ -1555,33 +978,32 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.8666666666667" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.7333333333333" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.8666666666667" style="6" customWidth="1"/>
-    <col min="5" max="5" width="29.4666666666667" customWidth="1"/>
-    <col min="6" max="6" width="44.1333333333333" customWidth="1"/>
-    <col min="7" max="7" width="27.4" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.73046875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.86328125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="29.46484375" customWidth="1"/>
+    <col min="6" max="6" width="44.1328125" customWidth="1"/>
+    <col min="7" max="7" width="27.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -1595,7 +1017,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -1609,7 +1031,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -1623,7 +1045,7 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>34</v>
       </c>
@@ -1637,7 +1059,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>35</v>
       </c>
@@ -1649,7 +1071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
@@ -1661,141 +1083,140 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
+    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
+    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
+    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
+    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
+    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" customHeight="1" spans="1:4">
+    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
+    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" customHeight="1" spans="1:4">
+    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" customHeight="1" spans="1:4">
+    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" customHeight="1" spans="1:4">
+    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" customHeight="1" spans="1:4">
+    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" customHeight="1" spans="1:4">
+    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" customHeight="1" spans="1:4">
+    <row r="19" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" customHeight="1" spans="1:4">
+    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" customHeight="1" spans="1:4">
+    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
     </row>
-    <row r="22" customHeight="1" spans="1:4">
+    <row r="22" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" customHeight="1" spans="1:4">
+    <row r="23" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
     </row>
-    <row r="24" customHeight="1" spans="1:4">
+    <row r="24" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
     </row>
-    <row r="25" customHeight="1" spans="1:4">
+    <row r="25" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.875" defaultRowHeight="29" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="18.86328125" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16383" width="18.875" customWidth="1"/>
+    <col min="1" max="16383" width="18.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1806,14 +1227,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:3">
+    <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" customHeight="1" spans="1:3">
+    <row r="3" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1824,7 +1245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:3">
+    <row r="4" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1835,7 +1256,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:3">
+    <row r="5" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>41</v>
       </c>
@@ -1843,7 +1264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:3">
+    <row r="6" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>42</v>
       </c>
@@ -1851,7 +1272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="2:3">
+    <row r="7" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>43</v>
       </c>
@@ -1859,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:3">
+    <row r="8" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -1867,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="2:3">
+    <row r="9" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>45</v>
       </c>
@@ -1875,16 +1296,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="2:3">
+    <row r="10" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" customHeight="1" spans="2:3">
+    <row r="11" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Luban/Config/Datas/Config.xlsx
+++ b/Luban/Config/Datas/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Blues-Dusk\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F34C17-6FCE-4F2D-AD35-BFF8A24CB2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D489D715-0F1F-4396-BBC7-83974D047E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -161,13 +161,21 @@
   </si>
   <si>
     <t>S_Tower</t>
+  </si>
+  <si>
+    <t>UI_SettingSystem</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +219,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -288,7 +304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -334,6 +350,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -640,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -875,6 +894,23 @@
         <v>0</v>
       </c>
       <c r="F13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>1006</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Luban/Config/Datas/Config.xlsx
+++ b/Luban/Config/Datas/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Blues-Dusk\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D489D715-0F1F-4396-BBC7-83974D047E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F34C17-6FCE-4F2D-AD35-BFF8A24CB2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -161,21 +161,13 @@
   </si>
   <si>
     <t>S_Tower</t>
-  </si>
-  <si>
-    <t>UI_SettingSystem</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,14 +211,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -304,7 +288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -350,9 +334,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -659,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -894,23 +875,6 @@
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>1006</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Luban/Config/Datas/Config.xlsx
+++ b/Luban/Config/Datas/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Blues-Dusk\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D489D715-0F1F-4396-BBC7-83974D047E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19BECB2-EF27-48BD-B382-AA57AFA1EF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -662,7 +662,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">

--- a/Luban/Config/Datas/Config.xlsx
+++ b/Luban/Config/Datas/Config.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Blues-Dusk\Luban\Config\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19BECB2-EF27-48BD-B382-AA57AFA1EF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="UIConfig" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -106,6 +100,9 @@
     <t>UI_SelectScene</t>
   </si>
   <si>
+    <t>UI_SettingSystem</t>
+  </si>
+  <si>
     <t>实体编号</t>
   </si>
   <si>
@@ -161,21 +158,19 @@
   </si>
   <si>
     <t>S_Tower</t>
-  </si>
-  <si>
-    <t>UI_SettingSystem</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,7 +196,7 @@
       <sz val="12"/>
       <color rgb="FF24292F"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -217,21 +212,144 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,8 +386,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -292,15 +584,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -308,8 +836,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -331,11 +859,11 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -348,25 +876,67 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -653,28 +1223,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="4" width="15.86328125" customWidth="1"/>
-    <col min="5" max="5" width="29.46484375" customWidth="1"/>
-    <col min="6" max="6" width="44.1328125" customWidth="1"/>
-    <col min="7" max="7" width="27.3984375" customWidth="1"/>
+    <col min="2" max="4" width="15.8666666666667" customWidth="1"/>
+    <col min="5" max="5" width="29.4666666666667" customWidth="1"/>
+    <col min="6" max="6" width="44.1333333333333" customWidth="1"/>
+    <col min="7" max="7" width="27.4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +1264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,7 +1274,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -724,7 +1294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -744,7 +1314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" customHeight="1" spans="2:6">
       <c r="B5">
         <v>100</v>
       </c>
@@ -758,10 +1328,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:6">
       <c r="B6">
         <v>101</v>
       </c>
@@ -775,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:6">
       <c r="B7">
         <v>102</v>
       </c>
@@ -792,10 +1362,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:6">
       <c r="B8">
         <v>1000</v>
       </c>
@@ -809,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:6">
       <c r="B9">
         <v>1001</v>
       </c>
@@ -826,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:6">
       <c r="B10">
         <v>1002</v>
       </c>
@@ -846,7 +1416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" customHeight="1" spans="2:6">
       <c r="B11">
         <v>1003</v>
       </c>
@@ -860,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:6">
       <c r="B12">
         <v>1004</v>
       </c>
@@ -877,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:6">
       <c r="B13">
         <v>1005</v>
       </c>
@@ -894,50 +1464,51 @@
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:6">
       <c r="B14">
         <v>1006</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.86328125" defaultRowHeight="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.8666666666667" defaultRowHeight="28.05" customHeight="1" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="4" width="16.86328125" customWidth="1"/>
-    <col min="5" max="5" width="26.86328125" customWidth="1"/>
-    <col min="6" max="6" width="25.3984375" customWidth="1"/>
-    <col min="7" max="7" width="16.86328125" customWidth="1"/>
+    <col min="1" max="4" width="16.8666666666667" customWidth="1"/>
+    <col min="5" max="5" width="26.8666666666667" customWidth="1"/>
+    <col min="6" max="6" width="25.4" customWidth="1"/>
+    <col min="7" max="7" width="16.8666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -951,7 +1522,7 @@
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
     </row>
-    <row r="2" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -961,7 +1532,7 @@
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -975,12 +1546,12 @@
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
     </row>
-    <row r="4" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -989,59 +1560,60 @@
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" customHeight="1" spans="2:3">
       <c r="B5">
         <v>10000</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:3">
       <c r="B6">
         <v>10001</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:3">
       <c r="B7">
         <v>10002</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.73046875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.86328125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="29.46484375" customWidth="1"/>
-    <col min="6" max="6" width="44.1328125" customWidth="1"/>
-    <col min="7" max="7" width="27.3984375" customWidth="1"/>
+    <col min="2" max="2" width="15.8666666666667" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.7333333333333" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.8666666666667" style="6" customWidth="1"/>
+    <col min="5" max="5" width="29.4666666666667" customWidth="1"/>
+    <col min="6" max="6" width="44.1333333333333" customWidth="1"/>
+    <col min="7" max="7" width="27.4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" customHeight="1" spans="1:6">
       <c r="A1" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>6</v>
@@ -1053,9 +1625,9 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>9</v>
@@ -1067,9 +1639,9 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>9</v>
@@ -1081,9 +1653,9 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
@@ -1095,9 +1667,9 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>7</v>
@@ -1107,9 +1679,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>7</v>
@@ -1119,158 +1691,159 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
     </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
     </row>
-    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
     </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" customHeight="1" spans="1:4">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
     </row>
-    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" customHeight="1" spans="1:4">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" customHeight="1" spans="1:4">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" customHeight="1" spans="1:4">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" customHeight="1" spans="1:4">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" customHeight="1" spans="1:4">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" customHeight="1" spans="1:4">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
     </row>
-    <row r="22" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" customHeight="1" spans="1:4">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" customHeight="1" spans="1:4">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" customHeight="1" spans="1:4">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
     </row>
-    <row r="25" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" customHeight="1" spans="1:4">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.86328125" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="18.8666666666667" defaultRowHeight="29" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16383" width="18.86328125" customWidth="1"/>
+    <col min="1" max="16383" width="18.8666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1281,67 +1854,67 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:3">
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" customHeight="1" spans="2:3">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" customHeight="1" spans="2:3">
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" customHeight="1" spans="2:3">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" customHeight="1" spans="2:3">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Luban/Config/Datas/Config.xlsx
+++ b/Luban/Config/Datas/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UIConfig" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -133,6 +133,9 @@
     <t>current_week</t>
   </si>
   <si>
+    <t>wear_tie</t>
+  </si>
+  <si>
     <t>scene_asset_name</t>
   </si>
   <si>
@@ -145,19 +148,16 @@
     <t>是否解锁</t>
   </si>
   <si>
-    <t>S_Parlor</t>
-  </si>
-  <si>
-    <t>S_Station</t>
-  </si>
-  <si>
-    <t>S_Bar</t>
-  </si>
-  <si>
-    <t>S_FengHospital</t>
-  </si>
-  <si>
-    <t>S_Tower</t>
+    <t>S_Tower_Under</t>
+  </si>
+  <si>
+    <t>S_Apartment_Living</t>
+  </si>
+  <si>
+    <t>S_Bookstore_Instore</t>
+  </si>
+  <si>
+    <t>S_Shire_Restaurant</t>
   </si>
 </sst>
 </file>
@@ -170,7 +170,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,13 +207,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -690,10 +683,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,7 +695,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,24 +704,27 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -738,101 +734,98 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -878,9 +871,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1231,8 +1221,8 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
@@ -1471,10 +1461,10 @@
       <c r="B14">
         <v>1006</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="3" t="b">
@@ -1596,8 +1586,8 @@
   <sheetPr/>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
@@ -1692,10 +1682,16 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="D7" s="14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="15"/>
@@ -1817,12 +1813,14 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.8666666666667" defaultRowHeight="29" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16383" width="18.8666666666667" customWidth="1"/>
+    <col min="1" max="1" width="18.8666666666667" customWidth="1"/>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="3" max="16383" width="18.8666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
@@ -1830,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
@@ -1859,15 +1857,15 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:3">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -1875,7 +1873,7 @@
     </row>
     <row r="6" customHeight="1" spans="2:3">
       <c r="B6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1883,26 +1881,18 @@
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="2:3">
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">

--- a/Luban/Config/Datas/Config.xlsx
+++ b/Luban/Config/Datas/Config.xlsx
@@ -8,16 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="UIConfig" sheetId="1" r:id="rId1"/>
-    <sheet name="EntityConfig" sheetId="2" r:id="rId2"/>
-    <sheet name="GameConfig" sheetId="3" r:id="rId3"/>
-    <sheet name="SceneConfig" sheetId="4" r:id="rId4"/>
+    <sheet name="GameConfig" sheetId="3" r:id="rId2"/>
+    <sheet name="SceneConfig" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -101,18 +100,6 @@
   </si>
   <si>
     <t>UI_SettingSystem</t>
-  </si>
-  <si>
-    <t>实体编号</t>
-  </si>
-  <si>
-    <t>CubeExample</t>
-  </si>
-  <si>
-    <t>SphereExample</t>
-  </si>
-  <si>
-    <t>CylinderExample</t>
   </si>
   <si>
     <t>##var#column</t>
@@ -170,7 +157,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,13 +190,6 @@
       <color rgb="FF24292F"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -683,10 +663,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,7 +675,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,24 +684,27 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,101 +714,98 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -869,8 +849,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1222,7 +1200,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
@@ -1484,110 +1462,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.8666666666667" defaultRowHeight="28.05" customHeight="1" outlineLevelRow="6" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="4" width="16.8666666666667" customWidth="1"/>
-    <col min="5" max="5" width="26.8666666666667" customWidth="1"/>
-    <col min="6" max="6" width="25.4" customWidth="1"/>
-    <col min="7" max="7" width="16.8666666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" customHeight="1" spans="2:3">
-      <c r="B5">
-        <v>10000</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="2:3">
-      <c r="B6">
-        <v>10001</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="2:3">
-      <c r="B7">
-        <v>10002</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
@@ -1603,7 +1481,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
       <c r="A1" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>6</v>
@@ -1617,7 +1495,7 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>9</v>
@@ -1631,7 +1509,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>9</v>
@@ -1645,7 +1523,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
@@ -1659,7 +1537,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>7</v>
@@ -1671,7 +1549,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>7</v>
@@ -1683,7 +1561,7 @@
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>9</v>
@@ -1807,13 +1685,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.8666666666667" defaultRowHeight="29" customHeight="1" outlineLevelCol="2"/>
@@ -1828,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
@@ -1857,15 +1735,15 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:3">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -1873,7 +1751,7 @@
     </row>
     <row r="6" customHeight="1" spans="2:3">
       <c r="B6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1881,7 +1759,7 @@
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -1889,7 +1767,7 @@
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>

--- a/Luban/Config/Datas/Config.xlsx
+++ b/Luban/Config/Datas/Config.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Blues-Dusk\Luban\Config\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0240B5B3-E557-4CAF-9D05-C7FFF8212A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UIConfig" sheetId="1" r:id="rId1"/>
@@ -99,9 +105,6 @@
     <t>UI_SelectScene</t>
   </si>
   <si>
-    <t>UI_SettingSystem</t>
-  </si>
-  <si>
     <t>##var#column</t>
   </si>
   <si>
@@ -145,19 +148,17 @@
   </si>
   <si>
     <t>S_Shire_Restaurant</t>
+  </si>
+  <si>
+    <t>UI_ConfigSystem</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,7 +184,7 @@
       <sz val="12"/>
       <color rgb="FF24292F"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -192,137 +193,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,182 +251,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -557,260 +275,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -832,11 +314,11 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -849,62 +331,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1191,28 +634,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="4" width="15.8666666666667" customWidth="1"/>
-    <col min="5" max="5" width="29.4666666666667" customWidth="1"/>
-    <col min="6" max="6" width="44.1333333333333" customWidth="1"/>
-    <col min="7" max="7" width="27.4" customWidth="1"/>
+    <col min="2" max="4" width="15.86328125" customWidth="1"/>
+    <col min="5" max="5" width="29.46484375" customWidth="1"/>
+    <col min="6" max="6" width="44.1328125" customWidth="1"/>
+    <col min="7" max="7" width="27.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1242,7 +685,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1262,7 +705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1282,7 +725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:6">
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>100</v>
       </c>
@@ -1296,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="2:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>101</v>
       </c>
@@ -1313,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="2:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>102</v>
       </c>
@@ -1330,10 +773,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="2:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1000</v>
       </c>
@@ -1347,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="2:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1001</v>
       </c>
@@ -1364,10 +807,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1002</v>
       </c>
@@ -1381,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="2:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1003</v>
       </c>
@@ -1398,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="2:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1004</v>
       </c>
@@ -1415,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="2:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1005</v>
       </c>
@@ -1432,15 +875,15 @@
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="2:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1006</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
+      <c r="C14" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>17</v>
@@ -1449,39 +892,38 @@
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.8666666666667" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.7333333333333" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.8666666666667" style="6" customWidth="1"/>
-    <col min="5" max="5" width="29.4666666666667" customWidth="1"/>
-    <col min="6" max="6" width="44.1333333333333" customWidth="1"/>
-    <col min="7" max="7" width="27.4" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.73046875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.86328125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="29.46484375" customWidth="1"/>
+    <col min="6" max="6" width="44.1328125" customWidth="1"/>
+    <col min="7" max="7" width="27.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>6</v>
@@ -1493,9 +935,9 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>9</v>
@@ -1507,9 +949,9 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>9</v>
@@ -1521,9 +963,9 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
@@ -1535,9 +977,9 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>7</v>
@@ -1547,9 +989,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>7</v>
@@ -1559,9 +1001,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
+    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>9</v>
@@ -1571,155 +1013,154 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
+    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
+    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
+    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
+    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" customHeight="1" spans="1:4">
+    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
+    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" customHeight="1" spans="1:4">
+    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" customHeight="1" spans="1:4">
+    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" customHeight="1" spans="1:4">
+    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" customHeight="1" spans="1:4">
+    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" customHeight="1" spans="1:4">
+    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" customHeight="1" spans="1:4">
+    <row r="19" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" customHeight="1" spans="1:4">
+    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" customHeight="1" spans="1:4">
+    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
     </row>
-    <row r="22" customHeight="1" spans="1:4">
+    <row r="22" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" customHeight="1" spans="1:4">
+    <row r="23" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
     </row>
-    <row r="24" customHeight="1" spans="1:4">
+    <row r="24" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
     </row>
-    <row r="25" customHeight="1" spans="1:4">
+    <row r="25" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.8666666666667" defaultRowHeight="29" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="18.86328125" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.8666666666667" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="16383" width="18.8666666666667" customWidth="1"/>
+    <col min="1" max="1" width="18.86328125" customWidth="1"/>
+    <col min="2" max="2" width="23.86328125" customWidth="1"/>
+    <col min="3" max="16383" width="18.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:3">
+    </row>
+    <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" customHeight="1" spans="1:3">
+    <row r="3" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1730,59 +1171,59 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:3">
+    <row r="4" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="2:3">
-      <c r="B5" t="s">
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="2:3">
-      <c r="B6" t="s">
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="2:3">
-      <c r="B7" t="s">
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="2:3">
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="2:3">
+    <row r="10" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" customHeight="1" spans="2:3">
+    <row r="11" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Luban/Config/Datas/Config.xlsx
+++ b/Luban/Config/Datas/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UIConfig" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -114,10 +114,7 @@
     <t>current_day</t>
   </si>
   <si>
-    <t>current_weekday</t>
-  </si>
-  <si>
-    <t>current_week</t>
+    <t>current_stage</t>
   </si>
   <si>
     <t>wear_tie</t>
@@ -840,13 +837,13 @@
     <xf numFmtId="3" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1462,10 +1459,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
@@ -1544,140 +1541,128 @@
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13">
-        <v>1</v>
+      <c r="B6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14" t="b">
-        <v>0</v>
-      </c>
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
     </row>
     <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
     </row>
     <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
     </row>
     <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
     </row>
     <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:4">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1690,7 +1675,7 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1706,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
@@ -1735,15 +1720,15 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:3">
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -1751,7 +1736,7 @@
     </row>
     <row r="6" customHeight="1" spans="2:3">
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1759,7 +1744,7 @@
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -1767,7 +1752,7 @@
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>

--- a/Luban/Config/Datas/Config.xlsx
+++ b/Luban/Config/Datas/Config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>wear_tie</t>
+  </si>
+  <si>
+    <t>d13_talk_to_zora</t>
   </si>
   <si>
     <t>scene_asset_name</t>
@@ -1462,7 +1465,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
@@ -1557,10 +1560,16 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="D7" s="16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="14"/>
@@ -1691,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
@@ -1720,15 +1729,15 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:3">
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -1736,7 +1745,7 @@
     </row>
     <row r="6" customHeight="1" spans="2:3">
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1744,7 +1753,7 @@
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -1752,7 +1761,7 @@
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>

--- a/Luban/Config/Datas/Config.xlsx
+++ b/Luban/Config/Datas/Config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>d13_talk_to_zora</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>scene_asset_name</t>
@@ -1465,7 +1468,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
@@ -1572,10 +1575,16 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="D8" s="16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="14"/>
@@ -1700,10 +1709,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
@@ -1729,15 +1738,15 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:3">
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -1745,7 +1754,7 @@
     </row>
     <row r="6" customHeight="1" spans="2:3">
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1753,7 +1762,7 @@
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -1761,7 +1770,7 @@
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>

--- a/Luban/Config/Datas/Config.xlsx
+++ b/Luban/Config/Datas/Config.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Blues-Dusk\Luban\Config\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274D726C-9B39-460C-B33C-02E512D75466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="-23148" yWindow="5304" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UIConfig" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -148,19 +154,20 @@
   </si>
   <si>
     <t>S_Shire_Restaurant</t>
+  </si>
+  <si>
+    <t>UI_MainMenu</t>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,7 +193,7 @@
       <sz val="12"/>
       <color rgb="FF24292F"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -195,137 +202,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,182 +260,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -560,260 +284,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -835,11 +323,11 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -852,62 +340,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1194,28 +643,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="4" width="15.8666666666667" customWidth="1"/>
-    <col min="5" max="5" width="29.4666666666667" customWidth="1"/>
-    <col min="6" max="6" width="44.1333333333333" customWidth="1"/>
-    <col min="7" max="7" width="27.4" customWidth="1"/>
+    <col min="2" max="4" width="15.86328125" customWidth="1"/>
+    <col min="5" max="5" width="29.46484375" customWidth="1"/>
+    <col min="6" max="6" width="44.1328125" customWidth="1"/>
+    <col min="7" max="7" width="27.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1235,7 +684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1245,7 +694,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1265,7 +714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1285,7 +734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:6">
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>100</v>
       </c>
@@ -1302,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:6">
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>101</v>
       </c>
@@ -1319,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="2:6">
+    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>102</v>
       </c>
@@ -1336,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:6">
+    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1000</v>
       </c>
@@ -1353,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="2:6">
+    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1001</v>
       </c>
@@ -1370,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="2:6">
+    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1002</v>
       </c>
@@ -1387,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="2:6">
+    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1003</v>
       </c>
@@ -1404,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="2:6">
+    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1004</v>
       </c>
@@ -1421,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="2:6">
+    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1005</v>
       </c>
@@ -1438,15 +887,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="2:6">
+    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1006</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>17</v>
+      <c r="D14" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
@@ -1455,34 +904,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>1007</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.8666666666667" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.7333333333333" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.8666666666667" style="6" customWidth="1"/>
-    <col min="5" max="5" width="29.4666666666667" customWidth="1"/>
-    <col min="6" max="6" width="44.1333333333333" customWidth="1"/>
-    <col min="7" max="7" width="27.4" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.73046875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.86328125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="29.46484375" customWidth="1"/>
+    <col min="6" max="6" width="44.1328125" customWidth="1"/>
+    <col min="7" max="7" width="27.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
@@ -1496,7 +961,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
@@ -1510,7 +975,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
@@ -1524,7 +989,7 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>31</v>
       </c>
@@ -1538,7 +1003,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
@@ -1550,7 +1015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
@@ -1562,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
+    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>34</v>
       </c>
@@ -1574,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
+    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>35</v>
       </c>
@@ -1586,125 +1051,124 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
+    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
+    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
+    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
     </row>
-    <row r="12" customHeight="1" spans="1:4">
+    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
+    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" customHeight="1" spans="1:4">
+    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
     </row>
-    <row r="15" customHeight="1" spans="1:4">
+    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
     </row>
-    <row r="16" customHeight="1" spans="1:4">
+    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" customHeight="1" spans="1:4">
+    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" customHeight="1" spans="1:4">
+    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
     </row>
-    <row r="19" customHeight="1" spans="1:4">
+    <row r="19" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
     </row>
-    <row r="20" customHeight="1" spans="1:4">
+    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
     </row>
-    <row r="21" customHeight="1" spans="1:4">
+    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
     </row>
-    <row r="22" customHeight="1" spans="1:4">
+    <row r="22" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
     </row>
-    <row r="23" customHeight="1" spans="1:4">
+    <row r="23" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
     </row>
-    <row r="24" customHeight="1" spans="1:4">
+    <row r="24" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.8666666666667" defaultRowHeight="29" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="18.86328125" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.8666666666667" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="16383" width="18.8666666666667" customWidth="1"/>
+    <col min="1" max="1" width="18.86328125" customWidth="1"/>
+    <col min="2" max="2" width="23.86328125" customWidth="1"/>
+    <col min="3" max="16383" width="18.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1715,14 +1179,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:3">
+    <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" customHeight="1" spans="1:3">
+    <row r="3" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1733,7 +1197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:3">
+    <row r="4" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1744,7 +1208,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:3">
+    <row r="5" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>40</v>
       </c>
@@ -1752,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:3">
+    <row r="6" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>41</v>
       </c>
@@ -1760,7 +1224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="2:3">
+    <row r="7" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>42</v>
       </c>
@@ -1768,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:3">
+    <row r="8" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>43</v>
       </c>
@@ -1776,16 +1240,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="2:3">
+    <row r="10" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" customHeight="1" spans="2:3">
+    <row r="11" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Luban/Config/Datas/Config.xlsx
+++ b/Luban/Config/Datas/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="30720" windowHeight="15660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UIConfig" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>p11_talk_to_owen</t>
+  </si>
+  <si>
+    <t>p11_talk_to_noah</t>
   </si>
   <si>
     <t>scene_asset_name</t>
@@ -1209,10 +1215,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="4" width="15.8666666666667" customWidth="1"/>
-    <col min="5" max="5" width="29.4666666666667" customWidth="1"/>
-    <col min="6" max="6" width="44.1333333333333" customWidth="1"/>
-    <col min="7" max="7" width="27.4" customWidth="1"/>
+    <col min="2" max="4" width="15.8703703703704" customWidth="1"/>
+    <col min="5" max="5" width="29.462962962963" customWidth="1"/>
+    <col min="6" max="6" width="44.1296296296296" customWidth="1"/>
+    <col min="7" max="7" width="27.3981481481481" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
@@ -1468,18 +1474,18 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.8666666666667" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.7333333333333" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.8666666666667" style="6" customWidth="1"/>
-    <col min="5" max="5" width="29.4666666666667" customWidth="1"/>
-    <col min="6" max="6" width="44.1333333333333" customWidth="1"/>
-    <col min="7" max="7" width="27.4" customWidth="1"/>
+    <col min="2" max="2" width="15.8703703703704" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.7314814814815" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.8703703703704" style="6" customWidth="1"/>
+    <col min="5" max="5" width="29.462962962963" customWidth="1"/>
+    <col min="6" max="6" width="44.1296296296296" customWidth="1"/>
+    <col min="7" max="7" width="27.3981481481481" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
@@ -1587,16 +1593,28 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="D9" s="16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="D10" s="16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="14"/>
@@ -1697,11 +1715,11 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.8666666666667" defaultRowHeight="29" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="18.8703703703704" defaultRowHeight="29" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18.8666666666667" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="16383" width="18.8666666666667" customWidth="1"/>
+    <col min="1" max="1" width="18.8703703703704" customWidth="1"/>
+    <col min="2" max="2" width="23.8796296296296" customWidth="1"/>
+    <col min="3" max="16383" width="18.8703703703704" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
@@ -1709,10 +1727,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
@@ -1738,15 +1756,15 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:3">
       <c r="B5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -1754,7 +1772,7 @@
     </row>
     <row r="6" customHeight="1" spans="2:3">
       <c r="B6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1762,7 +1780,7 @@
     </row>
     <row r="7" customHeight="1" spans="2:3">
       <c r="B7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -1770,7 +1788,7 @@
     </row>
     <row r="8" customHeight="1" spans="2:3">
       <c r="B8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>

--- a/Luban/Config/Datas/Config.xlsx
+++ b/Luban/Config/Datas/Config.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Blues-Dusk\Luban\Config\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A255AE33-0ADD-400B-8CC2-FCFE380C7F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="15660" activeTab="1"/>
+    <workbookView xWindow="-23148" yWindow="5304" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UIConfig" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -154,19 +160,21 @@
   </si>
   <si>
     <t>S_Shire_Restaurant</t>
+  </si>
+  <si>
+    <t>UI_MainMenu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,7 +200,7 @@
       <sz val="12"/>
       <color rgb="FF24292F"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -201,137 +209,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,182 +267,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -566,260 +291,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -841,11 +330,11 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -858,62 +347,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1200,28 +650,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="4" width="15.8703703703704" customWidth="1"/>
-    <col min="5" max="5" width="29.462962962963" customWidth="1"/>
-    <col min="6" max="6" width="44.1296296296296" customWidth="1"/>
-    <col min="7" max="7" width="27.3981481481481" customWidth="1"/>
+    <col min="2" max="4" width="15.86328125" customWidth="1"/>
+    <col min="5" max="5" width="29.46484375" customWidth="1"/>
+    <col min="6" max="6" width="44.1328125" customWidth="1"/>
+    <col min="7" max="7" width="27.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1241,7 +691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +701,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1271,7 +721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1291,7 +741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:6">
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>100</v>
       </c>
@@ -1308,7 +758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:6">
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>101</v>
       </c>
@@ -1325,7 +775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="2:6">
+    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>102</v>
       </c>
@@ -1342,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:6">
+    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1000</v>
       </c>
@@ -1359,7 +809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="2:6">
+    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1001</v>
       </c>
@@ -1376,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="2:6">
+    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1002</v>
       </c>
@@ -1393,7 +843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="2:6">
+    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1003</v>
       </c>
@@ -1410,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="2:6">
+    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1004</v>
       </c>
@@ -1427,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="2:6">
+    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1005</v>
       </c>
@@ -1444,15 +894,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="2:6">
+    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1006</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>17</v>
+      <c r="D14" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
@@ -1461,34 +911,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>1007</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.8703703703704" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.7314814814815" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.8703703703704" style="6" customWidth="1"/>
-    <col min="5" max="5" width="29.462962962963" customWidth="1"/>
-    <col min="6" max="6" width="44.1296296296296" customWidth="1"/>
-    <col min="7" max="7" width="27.3981481481481" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.73046875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.86328125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="29.46484375" customWidth="1"/>
+    <col min="6" max="6" width="44.1328125" customWidth="1"/>
+    <col min="7" max="7" width="27.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
@@ -1502,7 +968,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
@@ -1516,7 +982,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
@@ -1530,7 +996,7 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>31</v>
       </c>
@@ -1544,7 +1010,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
@@ -1556,7 +1022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
@@ -1568,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
+    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>34</v>
       </c>
@@ -1580,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
+    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>35</v>
       </c>
@@ -1592,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
+    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>36</v>
       </c>
@@ -1604,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
+    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>37</v>
       </c>
@@ -1616,113 +1082,112 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
+    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
     </row>
-    <row r="12" customHeight="1" spans="1:4">
+    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
+    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" customHeight="1" spans="1:4">
+    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
     </row>
-    <row r="15" customHeight="1" spans="1:4">
+    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
     </row>
-    <row r="16" customHeight="1" spans="1:4">
+    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" customHeight="1" spans="1:4">
+    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" customHeight="1" spans="1:4">
+    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
     </row>
-    <row r="19" customHeight="1" spans="1:4">
+    <row r="19" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
     </row>
-    <row r="20" customHeight="1" spans="1:4">
+    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
     </row>
-    <row r="21" customHeight="1" spans="1:4">
+    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
     </row>
-    <row r="22" customHeight="1" spans="1:4">
+    <row r="22" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
     </row>
-    <row r="23" customHeight="1" spans="1:4">
+    <row r="23" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
     </row>
-    <row r="24" customHeight="1" spans="1:4">
+    <row r="24" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.8703703703704" defaultRowHeight="29" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="18.86328125" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.8703703703704" customWidth="1"/>
-    <col min="2" max="2" width="23.8796296296296" customWidth="1"/>
-    <col min="3" max="16383" width="18.8703703703704" customWidth="1"/>
+    <col min="1" max="1" width="18.86328125" customWidth="1"/>
+    <col min="2" max="2" width="23.86328125" customWidth="1"/>
+    <col min="3" max="16383" width="18.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1733,14 +1198,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:3">
+    <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" customHeight="1" spans="1:3">
+    <row r="3" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1751,7 +1216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:3">
+    <row r="4" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1762,7 +1227,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:3">
+    <row r="5" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>42</v>
       </c>
@@ -1770,7 +1235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:3">
+    <row r="6" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>43</v>
       </c>
@@ -1778,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="2:3">
+    <row r="7" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>44</v>
       </c>
@@ -1786,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:3">
+    <row r="8" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>45</v>
       </c>
@@ -1794,16 +1259,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="2:3">
+    <row r="10" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" customHeight="1" spans="2:3">
+    <row r="11" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Luban/Config/Datas/Config.xlsx
+++ b/Luban/Config/Datas/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Blues-Dusk\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A255AE33-0ADD-400B-8CC2-FCFE380C7F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5A872C-2F7A-4EE4-8850-555045425A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="5304" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>UI_SelectScene</t>
-  </si>
-  <si>
-    <t>UI_SettingSystem</t>
   </si>
   <si>
     <t>##var#column</t>
@@ -167,6 +164,14 @@
   </si>
   <si>
     <t>System</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_ConfigSystem</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>General</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -659,7 +664,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -806,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -823,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -840,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -857,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -874,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -891,24 +896,24 @@
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1006</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
+      <c r="C14" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -916,16 +921,16 @@
         <v>1007</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>47</v>
-      </c>
       <c r="E15" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -956,7 +961,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>6</v>
@@ -970,7 +975,7 @@
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>9</v>
@@ -984,7 +989,7 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>9</v>
@@ -998,7 +1003,7 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
@@ -1012,7 +1017,7 @@
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>7</v>
@@ -1024,7 +1029,7 @@
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>9</v>
@@ -1036,7 +1041,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>9</v>
@@ -1048,7 +1053,7 @@
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>9</v>
@@ -1060,7 +1065,7 @@
     </row>
     <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>9</v>
@@ -1072,7 +1077,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>9</v>
@@ -1192,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
@@ -1221,15 +1226,15 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -1237,7 +1242,7 @@
     </row>
     <row r="6" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1245,7 +1250,7 @@
     </row>
     <row r="7" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -1253,7 +1258,7 @@
     </row>
     <row r="8" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
